--- a/verif_results/exact/datos_verificacion_sigmoid_1como7.xlsx
+++ b/verif_results/exact/datos_verificacion_sigmoid_1como7.xlsx
@@ -1,34 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\DOCUME~1\MobaXterm\slash\pablo_desktopsm6qdlg\RemoteFiles\67110_2_12\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE5938F-C04C-4E62-9F98-1F9ACD974A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="8">
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>prop</t>
+  </si>
+  <si>
+    <t>mix</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>optimal</t>
+  </si>
+  <si>
+    <t>infeasible</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +79,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,249 +383,349 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>2</v>
       </c>
-      <c r="B1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C1" t="n">
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
         <v>0.01</v>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1" t="n">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
         <v>12.41283750534058</v>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>problem</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>prop</t>
-        </is>
-      </c>
-      <c r="J1" t="n">
-        <v>7.76837944984436</v>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>problem</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>mix</t>
-        </is>
-      </c>
-      <c r="O1" t="n">
-        <v>19.80893540382385</v>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>problem</t>
-        </is>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1">
+        <v>7.7683794498443604</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1">
+        <v>19.808935403823849</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>0.05</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>2.479903221130371</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>prop</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.4799032211303711</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1">
         <v>2.955761194229126</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>mix</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>6.390101194381714</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1">
+        <v>6.3901011943817139</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>0.01</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0.01785469055175781</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>infeasible</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>prop</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>0.03296852111816406</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>infeasible</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>mix</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>6.452707529067993</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.7854690551757809E-2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3.2968521118164063E-2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="1">
+        <v>6.4527075290679932</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0.05</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>276.53364753723139</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>6.0110988616943359</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1">
+        <v>16.369303941726681</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0.01</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.277144193649292</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.2654893398284912</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2.2387151718139648</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0.05</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>137.06518912315369</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>381.41204047203058</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>18.344256162643429</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/verif_results/exact/datos_verificacion_sigmoid_1como7.xlsx
+++ b/verif_results/exact/datos_verificacion_sigmoid_1como7.xlsx
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>6.262294054031372</v>
+        <v>3.443241119384766</v>
       </c>
       <c r="F1" t="n">
         <v>0</v>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="J1" t="n">
-        <v>6.118644952774048</v>
+        <v>3.335382699966431</v>
       </c>
       <c r="K1" t="n">
-        <v>0</v>
+        <v>6.623455243856195</v>
       </c>
       <c r="L1" t="inlineStr">
         <is>
@@ -470,7 +470,7 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="O1" t="n">
-        <v>7.798051595687866</v>
+        <v>5.262181520462036</v>
       </c>
       <c r="P1" t="n">
-        <v>4.366819165052027</v>
+        <v>0</v>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
@@ -491,7 +491,7 @@
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>optimal</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.923876047134399</v>
+        <v>10.04500031471252</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1.144999980926514</v>
+        <v>180.6951558589935</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1.063814163208008</v>
+        <v>4.120428562164307</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>33.50807476043701</v>
+        <v>14.05855989456177</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25.7239830493927</v>
+        <v>13.89803266525269</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>32.46625566482544</v>
+        <v>13.88736915588379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -659,10 +659,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>900.0009579658508</v>
+        <v>900.0016252994537</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01480413077313038</v>
+        <v>0.2437913945579288</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>579.4772884845734</v>
+        <v>900.0016708374023</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.2804465560232673</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>timelimit</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>900.000896692276</v>
+        <v>900.001594543457</v>
       </c>
       <c r="P4" t="n">
-        <v>0.007899593207402255</v>
+        <v>0.220122914932772</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -733,12 +733,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.01997995376586914</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.01917099952697754</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -747,7 +745,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>infeasible</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -756,12 +754,10 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.01971006393432617</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.01886487007141113</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -770,7 +766,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>infeasible</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -779,7 +775,7 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>1.460774660110474</v>
+        <v>3.450669050216675</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -811,7 +807,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2.838984966278076</v>
+        <v>9.721797943115234</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -832,7 +828,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>6.420554161071777</v>
+        <v>8.070398807525635</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -853,7 +849,7 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>11.04460144042969</v>
+        <v>6.647252559661865</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -885,12 +881,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.03069424629211426</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.03033185005187988</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -899,7 +893,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>infeasible</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -908,12 +902,10 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.03036141395568848</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.02992391586303711</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -922,7 +914,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>infeasible</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -931,12 +923,10 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>0.03026723861694336</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.03032541275024414</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -945,7 +935,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>infeasible</t>
+          <t>optimal</t>
         </is>
       </c>
     </row>
@@ -965,12 +955,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.03026390075683594</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.0300288200378418</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -979,7 +967,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>infeasible</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -988,12 +976,10 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.03005647659301758</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.02958559989929199</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1002,7 +988,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>infeasible</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1011,12 +997,10 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>0.02992105484008789</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.02937960624694824</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1025,7 +1009,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>infeasible</t>
+          <t>optimal</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1029,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.767543315887451</v>
+        <v>1.747166872024536</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1066,7 +1050,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1.7223219871521</v>
+        <v>1.740941524505615</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1087,7 +1071,7 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>1.701010704040527</v>
+        <v>1.758299112319946</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1119,10 +1103,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>161.3084831237793</v>
+        <v>168.5877814292908</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0002259123585358777</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1131,40 +1115,40 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>27.6166820526123</v>
+      </c>
+      <c r="K10" t="n">
+        <v>36.76190027572006</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
           <t>problem</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>prop</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>147.0695168972015</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.0007524021088068042</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>problem</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>mix</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>349.3108415603638</v>
+        <v>210.747834444046</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0001959885694476473</v>
+        <v>0.0001899636550118445</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1193,10 +1177,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>900.0006754398346</v>
+        <v>2.256194829940796</v>
       </c>
       <c r="F11" t="n">
-        <v>2.812485553393101e-06</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1205,7 +1189,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>timelimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1214,10 +1198,10 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>900.0006477832794</v>
+        <v>1.521941184997559</v>
       </c>
       <c r="K11" t="n">
-        <v>3.681766549450892e-06</v>
+        <v>0</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1226,7 +1210,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>timelimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1235,10 +1219,10 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>900.0006501674652</v>
+        <v>4.785305500030518</v>
       </c>
       <c r="P11" t="n">
-        <v>3.134201185984231e-06</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1247,7 +1231,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>timelimit</t>
+          <t>optimal</t>
         </is>
       </c>
     </row>
@@ -1267,10 +1251,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>900.0006484985352</v>
+        <v>900.000825881958</v>
       </c>
       <c r="F12" t="n">
-        <v>1.313103475703845</v>
+        <v>1.374606513218918</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1288,10 +1272,10 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>36.83830904960632</v>
+        <v>900.0006947517395</v>
       </c>
       <c r="K12" t="n">
-        <v>1.313103931976844</v>
+        <v>1.313103924788869</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1300,7 +1284,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>timelimit</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1309,14 +1293,14 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>900.0005943775177</v>
+        <v>900.0006144046783</v>
       </c>
       <c r="P12" t="n">
-        <v>340450488.0110123</v>
+        <v>1.313103913800823</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">

--- a/verif_results/exact/datos_verificacion_sigmoid_1como7.xlsx
+++ b/verif_results/exact/datos_verificacion_sigmoid_1como7.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,753 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>900.0016310214996</v>
+      </c>
+      <c r="F4" t="n">
+        <v>134089</v>
+      </c>
+      <c r="G4" t="n">
+        <v>32.98262442273946</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>900.001669883728</v>
+      </c>
+      <c r="L4" t="n">
+        <v>151680</v>
+      </c>
+      <c r="M4" t="n">
+        <v>39.25926505630516</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>900.0016639232635</v>
+      </c>
+      <c r="R4" t="n">
+        <v>151675</v>
+      </c>
+      <c r="S4" t="n">
+        <v>28.36323021848639</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.01918411254882812</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01891016960144043</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.442753553390503</v>
+      </c>
+      <c r="R5" t="n">
+        <v>71</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>9.778722286224365</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1531</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>8.109917640686035</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1418</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>6.63689112663269</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1035</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03035807609558105</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0.02985024452209473</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.02999210357666016</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.02971625328063965</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0.02953839302062988</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.02955913543701172</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1.708682060241699</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1.730047941207886</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.733025312423706</v>
+      </c>
+      <c r="R9" t="n">
+        <v>11</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>167.7738153934479</v>
+      </c>
+      <c r="F10" t="n">
+        <v>18760</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>27.51542019844055</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1516</v>
+      </c>
+      <c r="M10" t="n">
+        <v>97.35182818476173</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>207.739639043808</v>
+      </c>
+      <c r="R10" t="n">
+        <v>16244</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.01899275756753817</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2.22330117225647</v>
+      </c>
+      <c r="F11" t="n">
+        <v>57</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1.508891582489014</v>
+      </c>
+      <c r="L11" t="n">
+        <v>28</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>4.713398694992065</v>
+      </c>
+      <c r="R11" t="n">
+        <v>311</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>900.0006816387177</v>
+      </c>
+      <c r="F12" t="n">
+        <v>19400</v>
+      </c>
+      <c r="G12" t="n">
+        <v>57.88775974321567</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>900.0007956027985</v>
+      </c>
+      <c r="L12" t="n">
+        <v>16988</v>
+      </c>
+      <c r="M12" t="n">
+        <v>56.76804706942529</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>900.0006875991821</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2919</v>
+      </c>
+      <c r="S12" t="n">
+        <v>56.76804686405853</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/verif_results/exact/datos_verificacion_sigmoid_1como7.xlsx
+++ b/verif_results/exact/datos_verificacion_sigmoid_1como7.xlsx
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>3.482459545135498</v>
+        <v>3.983050584793091</v>
       </c>
       <c r="F1" t="n">
         <v>407</v>
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="K1" t="n">
-        <v>3.28963828086853</v>
+        <v>4.120671272277832</v>
       </c>
       <c r="L1" t="n">
         <v>117</v>
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="Q1" t="n">
-        <v>5.204136848449707</v>
+        <v>5.711438894271851</v>
       </c>
       <c r="R1" t="n">
-        <v>697</v>
+        <v>773</v>
       </c>
       <c r="S1" t="n">
         <v>0</v>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.279509305953979</v>
+        <v>9.946039438247681</v>
       </c>
       <c r="F2" t="n">
         <v>1452</v>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>178.4971368312836</v>
+        <v>177.4581396579742</v>
       </c>
       <c r="L2" t="n">
         <v>48292</v>
@@ -568,10 +568,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>3.761773347854614</v>
+        <v>2.758695363998413</v>
       </c>
       <c r="R2" t="n">
-        <v>455</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>14.07831716537476</v>
+        <v>31.94315242767334</v>
       </c>
       <c r="F3" t="n">
-        <v>7279</v>
+        <v>16409</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>13.93014669418335</v>
+        <v>14.76102209091187</v>
       </c>
       <c r="L3" t="n">
-        <v>7380</v>
+        <v>7995</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>13.91191983222961</v>
+        <v>14.17074656486511</v>
       </c>
       <c r="R3" t="n">
-        <v>7344</v>
+        <v>7264</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>900.0016310214996</v>
+        <v>287.5540976524353</v>
       </c>
       <c r="F4" t="n">
-        <v>134089</v>
+        <v>83206</v>
       </c>
       <c r="G4" t="n">
-        <v>32.98262442273946</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>timelimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -710,13 +710,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>900.001669883728</v>
+        <v>314.8126192092896</v>
       </c>
       <c r="L4" t="n">
-        <v>151680</v>
+        <v>94226</v>
       </c>
       <c r="M4" t="n">
-        <v>39.25926505630516</v>
+        <v>0</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>timelimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>900.0016639232635</v>
+        <v>587.5241506099701</v>
       </c>
       <c r="R4" t="n">
-        <v>151675</v>
+        <v>168789</v>
       </c>
       <c r="S4" t="n">
-        <v>28.36323021848639</v>
+        <v>0</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>timelimit</t>
+          <t>optimal</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.01918411254882812</v>
+        <v>0.0190894603729248</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.01891016960144043</v>
+        <v>0.01889204978942871</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>3.442753553390503</v>
+        <v>3.505332469940186</v>
       </c>
       <c r="R5" t="n">
         <v>71</v>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9.778722286224365</v>
+        <v>9.7844078540802</v>
       </c>
       <c r="F6" t="n">
         <v>1531</v>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>8.109917640686035</v>
+        <v>8.117925405502319</v>
       </c>
       <c r="L6" t="n">
         <v>1418</v>
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>6.63689112663269</v>
+        <v>5.781929969787598</v>
       </c>
       <c r="R6" t="n">
-        <v>1035</v>
+        <v>712</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.03035807609558105</v>
+        <v>0.03224873542785645</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.02985024452209473</v>
+        <v>0.03221750259399414</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>0.02999210357666016</v>
+        <v>0.03231406211853027</v>
       </c>
       <c r="R7" t="n">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.02971625328063965</v>
+        <v>0.03194928169250488</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.02953839302062988</v>
+        <v>0.03172469139099121</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>0.02955913543701172</v>
+        <v>0.03173565864562988</v>
       </c>
       <c r="R8" t="n">
         <v>1</v>
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.708682060241699</v>
+        <v>1.619262933731079</v>
       </c>
       <c r="F9" t="n">
         <v>11</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1.730047941207886</v>
+        <v>1.675772428512573</v>
       </c>
       <c r="L9" t="n">
         <v>11</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>1.733025312423706</v>
+        <v>1.658549070358276</v>
       </c>
       <c r="R9" t="n">
         <v>11</v>
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>167.7738153934479</v>
+        <v>129.3028552532196</v>
       </c>
       <c r="F10" t="n">
-        <v>18760</v>
+        <v>13657</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1208,13 +1208,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>27.51542019844055</v>
+        <v>306.8346629142761</v>
       </c>
       <c r="L10" t="n">
-        <v>1516</v>
+        <v>41196</v>
       </c>
       <c r="M10" t="n">
-        <v>97.35182818476173</v>
+        <v>0</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1232,13 +1232,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>207.739639043808</v>
+        <v>253.0427300930023</v>
       </c>
       <c r="R10" t="n">
-        <v>16244</v>
+        <v>24917</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01899275756753817</v>
+        <v>0.01732615660169737</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2.22330117225647</v>
+        <v>2.128938674926758</v>
       </c>
       <c r="F11" t="n">
         <v>57</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>1.508891582489014</v>
+        <v>1.751728057861328</v>
       </c>
       <c r="L11" t="n">
         <v>28</v>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>4.713398694992065</v>
+        <v>4.877230167388916</v>
       </c>
       <c r="R11" t="n">
         <v>311</v>
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>900.0006816387177</v>
+        <v>900.0006883144379</v>
       </c>
       <c r="F12" t="n">
-        <v>19400</v>
+        <v>24204</v>
       </c>
       <c r="G12" t="n">
-        <v>57.88775974321567</v>
+        <v>56.76805249936413</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>900.0007956027985</v>
+        <v>342.1404657363892</v>
       </c>
       <c r="L12" t="n">
-        <v>16988</v>
+        <v>8192</v>
       </c>
       <c r="M12" t="n">
-        <v>56.76804706942529</v>
+        <v>0.5219127105595135</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>timelimit</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1398,13 +1398,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>900.0006875991821</v>
+        <v>280.0500900745392</v>
       </c>
       <c r="R12" t="n">
-        <v>2919</v>
+        <v>6002</v>
       </c>
       <c r="S12" t="n">
-        <v>56.76804686405853</v>
+        <v>56.76804750709253</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>timelimit</t>
+          <t>problem</t>
         </is>
       </c>
     </row>
